--- a/knowledge_base/chatbot_qa_pairs.xlsx
+++ b/knowledge_base/chatbot_qa_pairs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="88">
   <si>
     <t>question</t>
   </si>
@@ -35,6 +35,18 @@
     <t>answer</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
     <t>metadatas</t>
   </si>
   <si>
@@ -44,7 +56,7 @@
     <t>عليكم السلام ورحمة الله، تفضل طال عمرك</t>
   </si>
   <si>
-    <t>greeting</t>
+    <t>عام</t>
   </si>
   <si>
     <t>ar</t>
@@ -77,9 +89,6 @@
     <t>الله يعافيك</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>{"type": "thanks"}</t>
   </si>
   <si>
@@ -104,7 +113,7 @@
     <t>أوكي تمام</t>
   </si>
   <si>
-    <t>conversation</t>
+    <t/>
   </si>
   <si>
     <t>{"type": "conversation"}</t>
@@ -191,7 +200,7 @@
     <t>نعم، الأسعار المحددة للمساجد عليها خصم إضافي</t>
   </si>
   <si>
-    <t>general_info</t>
+    <t>الطلبات</t>
   </si>
   <si>
     <t>default</t>
@@ -206,9 +215,6 @@
     <t>نعم طال عمرك، توصيل للمساجد الأكثر احتياجا و مساجد الحرم المكي والحرم المدني والمساجد القريبة منك</t>
   </si>
   <si>
-    <t>usage</t>
-  </si>
-  <si>
     <t>{"type": "usage"}</t>
   </si>
   <si>
@@ -218,9 +224,6 @@
     <t>اكيد طال عمرك فيه توثيق بالصور ويتم ارسالها لك فور إتمام التوصيل</t>
   </si>
   <si>
-    <t>brands</t>
-  </si>
-  <si>
     <t>{"type": "brands"}</t>
   </si>
   <si>
@@ -230,28 +233,64 @@
     <t>يجيك اشعار بالتوصيل ويصلك صور التوثيق لما تطلب</t>
   </si>
   <si>
+    <t>{"type": "delivery"}</t>
+  </si>
+  <si>
+    <t>مرحبا</t>
+  </si>
+  <si>
+    <t>مرحبا ، تفضل طال عمرك</t>
+  </si>
+  <si>
+    <t>اهلا</t>
+  </si>
+  <si>
+    <t>اهلا ، تفضل طال عمرك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اهلين </t>
+  </si>
+  <si>
+    <t>اهلين ، تفضل طال عمرك</t>
+  </si>
+  <si>
+    <t>ما هو الوقت الحالي؟ (Test - 03:25:26)</t>
+  </si>
+  <si>
+    <t>الوقت الحالي يمكن معرفته من خلال الساعة</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test_script</t>
+  </si>
+  <si>
+    <t>{"type": "test", "created_at": "2025-07-18T03:25:26.435222", "test_id": "column_mapping_test"}</t>
+  </si>
+  <si>
+    <t>ما هي مواعيد التوصيل؟ (Workflow Test - 03:25:29)</t>
+  </si>
+  <si>
+    <t>مواعيد التوصيل من 8 صباحاً إلى 10 مساءً</t>
+  </si>
+  <si>
     <t>delivery</t>
   </si>
   <si>
-    <t>{"type": "delivery"}</t>
-  </si>
-  <si>
-    <t>مرحبا</t>
-  </si>
-  <si>
-    <t>مرحبا ، تفضل طال عمرك</t>
-  </si>
-  <si>
-    <t>اهلا</t>
-  </si>
-  <si>
-    <t>اهلا ، تفضل طال عمرك</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اهلين </t>
-  </si>
-  <si>
-    <t>اهلين ، تفضل طال عمرك</t>
+    <t>workflow_test</t>
+  </si>
+  <si>
+    <t>{"category": "delivery", "language": "ar", "source": "workflow_test", "priority": "normal", "test_id": "workflow_test"}</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>{"category": "general", "source": "admin", "priority": "normal", "created_at": "2025-07-18T01:54:10.183Z"}</t>
   </si>
 </sst>
 </file>
@@ -264,7 +303,21 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,18 +470,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -740,31 +787,20 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,128 +809,135 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,221 +990,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1171,7 +1000,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1181,39 +1010,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1245,7 +1074,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1280,7 +1108,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1292,131 +1119,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1428,644 +1284,676 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2"/>
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>53</v>
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
         <v>58</v>
       </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>55</v>
-      </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>62</v>
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" t="s">
         <v>66</v>
       </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
         <v>68</v>
@@ -2079,19 +1967,19 @@
         <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2102,19 +1990,19 @@
         <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2125,19 +2013,88 @@
         <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/knowledge_base/chatbot_qa_pairs.xlsx
+++ b/knowledge_base/chatbot_qa_pairs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="69">
   <si>
     <t>question</t>
   </si>
@@ -68,7 +68,7 @@
     <t>normal</t>
   </si>
   <si>
-    <t>{"type": "greeting"}</t>
+    <t>{"type": "question"}</t>
   </si>
   <si>
     <t>الوو</t>
@@ -89,9 +89,6 @@
     <t>الله يعافيك</t>
   </si>
   <si>
-    <t>{"type": "thanks"}</t>
-  </si>
-  <si>
     <t>شكرًا لكم</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t/>
   </si>
   <si>
-    <t>{"type": "conversation"}</t>
-  </si>
-  <si>
     <t xml:space="preserve">تمام </t>
   </si>
   <si>
@@ -206,36 +200,24 @@
     <t>default</t>
   </si>
   <si>
-    <t>{"type": "general_info"}</t>
-  </si>
-  <si>
     <t>توصلون للمساجد؟</t>
   </si>
   <si>
     <t>نعم طال عمرك، توصيل للمساجد الأكثر احتياجا و مساجد الحرم المكي والحرم المدني والمساجد القريبة منك</t>
   </si>
   <si>
-    <t>{"type": "usage"}</t>
-  </si>
-  <si>
     <t>فيه توثيق؟</t>
   </si>
   <si>
     <t>اكيد طال عمرك فيه توثيق بالصور ويتم ارسالها لك فور إتمام التوصيل</t>
   </si>
   <si>
-    <t>{"type": "brands"}</t>
-  </si>
-  <si>
     <t>كيف اعرف ان الطلب وصل؟</t>
   </si>
   <si>
     <t>يجيك اشعار بالتوصيل ويصلك صور التوثيق لما تطلب</t>
   </si>
   <si>
-    <t>{"type": "delivery"}</t>
-  </si>
-  <si>
     <t>مرحبا</t>
   </si>
   <si>
@@ -252,45 +234,6 @@
   </si>
   <si>
     <t>اهلين ، تفضل طال عمرك</t>
-  </si>
-  <si>
-    <t>ما هو الوقت الحالي؟ (Test - 03:25:26)</t>
-  </si>
-  <si>
-    <t>الوقت الحالي يمكن معرفته من خلال الساعة</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test_script</t>
-  </si>
-  <si>
-    <t>{"type": "test", "created_at": "2025-07-18T03:25:26.435222", "test_id": "column_mapping_test"}</t>
-  </si>
-  <si>
-    <t>ما هي مواعيد التوصيل؟ (Workflow Test - 03:25:29)</t>
-  </si>
-  <si>
-    <t>مواعيد التوصيل من 8 صباحاً إلى 10 مساءً</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>workflow_test</t>
-  </si>
-  <si>
-    <t>{"category": "delivery", "language": "ar", "source": "workflow_test", "priority": "normal", "test_id": "workflow_test"}</t>
-  </si>
-  <si>
-    <t>general</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>{"category": "general", "source": "admin", "priority": "normal", "created_at": "2025-07-18T01:54:10.183Z"}</t>
   </si>
 </sst>
 </file>
@@ -303,7 +246,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,13 +257,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -788,148 +724,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1284,10 +1220,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1404,15 +1340,15 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1427,15 +1363,15 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1455,10 +1391,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1478,10 +1414,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1496,15 +1432,15 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1519,15 +1455,15 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1542,15 +1478,15 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1570,16 +1506,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -1593,16 +1529,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -1616,16 +1552,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -1639,16 +1575,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -1662,16 +1598,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1685,16 +1621,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1703,21 +1639,21 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1726,21 +1662,21 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1749,21 +1685,21 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1772,21 +1708,21 @@
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1795,21 +1731,21 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1818,21 +1754,21 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1841,21 +1777,21 @@
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1864,61 +1800,61 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
         <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -1927,44 +1863,44 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -1984,10 +1920,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -2007,10 +1943,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -2026,75 +1962,6 @@
       </c>
       <c r="G32" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/knowledge_base/chatbot_qa_pairs.xlsx
+++ b/knowledge_base/chatbot_qa_pairs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="71">
   <si>
     <t>question</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>اهلين ، تفضل طال عمرك</t>
+  </si>
+  <si>
+    <t>صباح الخير</t>
+  </si>
+  <si>
+    <t>صباح النور ، تفضل طال عمرك</t>
   </si>
 </sst>
 </file>
@@ -1220,10 +1226,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1964,6 +1970,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/knowledge_base/chatbot_qa_pairs.xlsx
+++ b/knowledge_base/chatbot_qa_pairs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="61">
   <si>
     <t>question</t>
   </si>
@@ -186,36 +186,6 @@
   </si>
   <si>
     <t>No problem</t>
-  </si>
-  <si>
-    <t>فيه خصم للمساجد؟</t>
-  </si>
-  <si>
-    <t>نعم، الأسعار المحددة للمساجد عليها خصم إضافي</t>
-  </si>
-  <si>
-    <t>الطلبات</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>توصلون للمساجد؟</t>
-  </si>
-  <si>
-    <t>نعم طال عمرك، توصيل للمساجد الأكثر احتياجا و مساجد الحرم المكي والحرم المدني والمساجد القريبة منك</t>
-  </si>
-  <si>
-    <t>فيه توثيق؟</t>
-  </si>
-  <si>
-    <t>اكيد طال عمرك فيه توثيق بالصور ويتم ارسالها لك فور إتمام التوصيل</t>
-  </si>
-  <si>
-    <t>كيف اعرف ان الطلب وصل؟</t>
-  </si>
-  <si>
-    <t>يجيك اشعار بالتوصيل ويصلك صور التوثيق لما تطلب</t>
   </si>
   <si>
     <t>مرحبا</t>
@@ -1226,10 +1196,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1817,13 +1787,13 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1834,19 +1804,19 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1857,10 +1827,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -1869,7 +1839,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1880,116 +1850,24 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
         <v>13</v>
       </c>
     </row>

--- a/knowledge_base/chatbot_qa_pairs.xlsx
+++ b/knowledge_base/chatbot_qa_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1139,37 +1139,971 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>بكم التوصيل ؟</t>
+          <t>هل يوجد دفع فيزا</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>يختلف التوصيل باختلاف المدينة فما هي مدينتك طال عمرك ؟</t>
+          <t>نعم يوجد دفع فيزا</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>استفسارات الدفع</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات الدفع", "source": "admin", "priority": "normal", "created_at": "2025-07-23T13:43:47.147Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>فيه كود خصم ؟</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>نعتذر منك طال عمرك لاتوجد اكواد خصم هذه الفترة</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>استفسارات عامة</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات عامة", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:01:48.990Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>كم تخصمون اذا بطلب كمية</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>كم الكمية استاذي؟</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>استفسارات عامة</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات عامة", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:02:45.435Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>فيه عروض؟</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>نعم العروض متاحة في صفحة العروض على التطبيق طال عمرك.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>استفسارات عامة</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات عامة", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:03:13.564Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>كم نسبة الصوديوم في بيرين؟</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>الصوديوم في بيرين هو 17.12 ملغ</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>استفسارات المنتجات</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات المنتجات", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:04:11.753Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>كم نسبة البرومات في حلوة؟</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>البرومات في مياه حلوه: صفر</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>استفسارات المنتجات</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات المنتجات", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:05:10.482Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>توصلون للجموم؟</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>المنطقه غير مدعومه حالياً</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>استفسارات التوصيل</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ar</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>{"category": "استفسارات التوصيل", "source": "admin", "priority": "normal", "created_at": "2025-07-23T13:32:22.860Z"}</t>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات التوصيل", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:06:52.974Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>وش المدن اللي توصلون لها؟</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>اكثر المدن السعودية يتم التوصيل لها بالفعل، ممكن تحدد لي المدينة اللي تبي التوصيل لها خل اخدمك.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>استفسارات التوصيل</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات التوصيل", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:07:20.026Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>توصلون للدور الرابع؟</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>نعم طال عمرك</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>استفسارات التوصيل</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات التوصيل", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:07:43.170Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>تغطون خميس مشيط؟</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>نعم متوفر 
+بتحصل الاصناف والاسعار في التطبيق وهذا هو الرابط https://onelink.to/abar_app
+https://abar.app/en/store/ وايضا عن طريق الموقع  الالكتروني</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>استفسارات التوصيل</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات التوصيل", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:10:18.238Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>فيه دفع عند الاستلام؟</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>نعم طال عمرك موجود</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>استفسارات الدفع</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات الدفع", "source": "admin", "updated_at": "2025-07-25T17:10:14.881551"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>أقدر أدفع أبل باي؟</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>نعم طال عمرك تقدر عن طريق التطبيق، تحب ازودك برابط التطبيق؟</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>استفسارات الدفع</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات الدفع", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:12:10.300Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>التطبيق ما يشتغل مو راضي يفتح معي
+التطبيق يعلق
+التطبيق فيه مشكلة</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>وش المشكلة اللي تواجهك استاذي واذا ممكن تحدد لي نوع جوالك والاصدار عشان اخدمك بشكل عملي</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>الشكاوي</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>{"category": "الشكاوي", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:13:23.552Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>كيف احمل التطبيق؟</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>تفضل بتحصل الاصناف والاسعار في التطبيق وهذا هو الرابط https://onelink.to/abar_app
+https://abar.app/en/store/ وايضا عن طريق الموقع  الالكتروني</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>استفسارات عامة</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات عامة", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:14:12.955Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>فيه خصم للمساجد؟</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>نعم، الأسعار المحددة للمساجد عليها خصم إضافي</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>استفسارات عامة</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات عامة", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:16:56.630Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>توصلون للمساجد؟</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>نعم طال عمرك، توصيل للمساجد الأكثر احتياجا و مساجد الحرم المكي والحرم المدني والمساجد القريبة منك</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>استفسارات عامة</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات عامة", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:17:17.427Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>فيه توثيق؟</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>اكيد طال عمرك فيه توثيق بالصور ويتم ارسالها لك فور إتمام التوصيل</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>استفسارات عامة</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات عامة", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:17:37.203Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>كيف اعرف ان الطلب وصل؟
+كيف اعرف اذا طلبي وصل؟</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>يجيك اشعار بالتوصيل ويصلك صور التوثيق لما تطلب</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>استفسارات التوصيل</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات التوصيل", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:18:19.605Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>كيف أشترك اشتراك شهري؟
+عندكم اشتراكات؟</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>اعتذر منك
+غير متوفر حالياً</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>استفسارات عامة</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات عامة", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:20:01.351Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>الغيلي الطلب 
+ألغ طلبي لاهنت</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>اسباب الالغاء لو تكرمت ؟</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>استفسارات الدعم الفني</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات الدعم الفني", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:25:07.413Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ابي اضيف 4 كراتين على الطلب</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>من نفس المنتج؟</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>استفسارات الدعم الفني</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات الدعم الفني", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:25:46.487Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ابيه يجيب أبو نص بس لا يجيب أبو ريال</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ببلغ المورد ولو هناك امكانية بيتم تعديل الطلب</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>استفسارات الدعم الفني</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات الدعم الفني", "source": "admin", "updated_at": "2025-07-23T14:35:08.981192"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>أبغى أغير العنوان المسجل عندي</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>لو تكرمت تزودنا بالعنوان الجديد</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>استفسارات الدعم الفني</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات الدعم الفني", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:27:28.877Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>لوسمحت ابيه يوصل لعنواني الأول</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ابشر طال عمرك</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>استفسارات الدعم الفني</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات الدعم الفني", "source": "admin", "priority": "normal", "created_at": "2025-07-23T14:27:47.272Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>فيه دفع شبكة؟</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>نعم موجود دفع شبكة طال عمرك</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>استفسارات الدفع</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات الدفع", "source": "admin", "priority": "normal", "created_at": "2025-07-25T17:10:56.309Z"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>لدي استفسار</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>تفضل طال عمرك</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>استفسارات عامة</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>{"category": "استفسارات عامة", "source": "admin", "priority": "normal", "created_at": "2025-07-31T07:30:17.486Z"}</t>
         </is>
       </c>
     </row>
